--- a/outfinish.xlsx
+++ b/outfinish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Дом</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Сравниваем_Файл_1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Слияние</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Сравниваем_Файл_2</t>
         </is>
@@ -455,12 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1111</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -469,12 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2222</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>12</v>
       </c>
     </row>
@@ -482,13 +493,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5 к. 1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3333</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>23</v>
       </c>
     </row>
@@ -497,12 +513,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
         <v>43</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4444</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>43</v>
       </c>
     </row>
@@ -511,12 +530,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>5555</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>54</v>
       </c>
     </row>
@@ -525,12 +547,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>6666</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>65</v>
       </c>
     </row>
@@ -539,12 +564,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>65</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>7777</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>65</v>
       </c>
     </row>
